--- a/Template/SkillEffectsDamage.xlsx
+++ b/Template/SkillEffectsDamage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trim0\Documents\source\ProjectBattleArena\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49335E1B-87FD-4AD5-9F36-8BBEDB20DEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3AB266-DB5D-48E3-B0EE-19A598F7016D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11030" yWindow="2260" windowWidth="19200" windowHeight="11270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,6 +66,10 @@
   </si>
   <si>
     <t>BasicAttackDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireballDamage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -391,18 +395,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.08203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
@@ -425,6 +429,17 @@
       </c>
       <c r="C2">
         <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>1001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -439,7 +454,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>

--- a/Template/SkillEffectsDamage.xlsx
+++ b/Template/SkillEffectsDamage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trim0\Documents\source\ProjectBattleArena\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3AB266-DB5D-48E3-B0EE-19A598F7016D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF50E756-C140-43C3-9636-5101006974F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11030" yWindow="2260" windowWidth="19200" windowHeight="11270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,6 +70,20 @@
   </si>
   <si>
     <t>FireballDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageEffectType</t>
+  </si>
+  <si>
+    <t>enum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProportionalDamageFromLostHp</t>
+  </si>
+  <si>
+    <t>Normal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -395,21 +409,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="F17" sqref="F16:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="29.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.08203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -419,8 +433,11 @@
       <c r="C1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -430,8 +447,11 @@
       <c r="C2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -440,6 +460,9 @@
       </c>
       <c r="C3">
         <v>160</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -451,10 +474,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2181B41-2634-4EEE-8310-849A71C5CE68}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -523,6 +546,20 @@
         <v>9</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Template/SkillEffectsDamage.xlsx
+++ b/Template/SkillEffectsDamage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trim0\Documents\source\ProjectBattleArena\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\ProjectBattleArena\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF50E756-C140-43C3-9636-5101006974F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452F6A4F-7B65-422C-A448-8F4058EAAE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,14 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BasicAttackDamage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FireballDamage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DamageEffectType</t>
   </si>
   <si>
@@ -85,6 +77,73 @@
   <si>
     <t>Normal</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicAttackDamageX110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicAttackDamageX120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicAttackDamageX130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicAttackDamageX140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicAttackDamageX150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicAttackDamageX160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicAttackDamageX170</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicAttackDamageX180</t>
+  </si>
+  <si>
+    <t>BasicAttackDamageX190</t>
+  </si>
+  <si>
+    <t>BasicAttackDamageX200</t>
+  </si>
+  <si>
+    <t>ProportionalDamageFromLostHpX140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicAttackDamageX100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProportionalDamageFromLostHpX150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProportionalDamageFromLostHpX160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProportionalDamageFromLostHpX170</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProportionalDamageFromLostHpX180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProportionalDamageFromLostHpX190</t>
+  </si>
+  <si>
+    <t>ProportionalDamageFromLostHpX200</t>
   </si>
 </sst>
 </file>
@@ -409,21 +468,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F16:F17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -434,35 +493,259 @@
         <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1000</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C3">
+        <v>110</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>120</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>130</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>140</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>150</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
         <v>160</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1007</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>170</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1008</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>180</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1009</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>190</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1010</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <v>200</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1011</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <v>140</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1012</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>150</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1013</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15">
+        <v>160</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1014</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16">
+        <v>170</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1015</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17">
+        <v>180</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1016</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>190</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1017</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19">
+        <v>200</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -480,17 +763,17 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.58203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="8.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.375" customWidth="1"/>
+    <col min="8" max="8" width="8.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.58203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -504,7 +787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -518,7 +801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -532,7 +815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -546,9 +829,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -557,7 +840,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
